--- a/Report_data/carta3.xlsx
+++ b/Report_data/carta3.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-3145833266404799589" xfId="1" hidden="0"/>
-    <cellStyle name="5075013341758972522" xfId="2" hidden="0"/>
+    <cellStyle name="-5783657607688946617" xfId="1" hidden="0"/>
+    <cellStyle name="-6384077094696465614" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,27 +541,82 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ReferenciaOrigen</t>
+          <t>Id de destino</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MunicipioOrigen</t>
+          <t>RFC de Destino</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>EstadoOrigen</t>
+          <t>Destino</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PaisOrigen</t>
+          <t>FechaLlegada</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>CPOrigen</t>
+          <t>HoraLlegada</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>DistanciaDestino</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CalleDestino</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>NumExtDestino</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>NumIntDestino</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ColoniaDestino</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>LocalidadDestino</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ReferenciaDestino</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MunicipioDestino</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>EstadoDestino</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PaisDestino</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>CPDestino</t>
         </is>
       </c>
     </row>
@@ -571,12 +626,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>XAXX010101000</t>
+          <t>EKU9003173C9</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>ABARROTES CHUPER NEGRO SA DE CV</t>
+          <t>GIFAN INTERNACIONAL S DE RL DE CV</t>
         </is>
       </c>
       <c r="D2" s="2" t="b">
@@ -593,7 +648,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Sur 95</t>
+          <t>CARRETERA PUENTE DE VIGAS KM 14.5</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
@@ -604,33 +659,76 @@
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>Asturias</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Cliente Número 17</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="b">
-        <v>0</v>
+          <t>INDEPENDENCIA</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Tultitlán de Mariano Escobedo</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>AAL060807PZ4</t>
+        </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
+          <t>A&amp;N ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>PASEO DE LOS SAUCES</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>PARQUE INDUSTRIAL LERMA</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANALIMEN </t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
         <is>
           <t>México</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>06890</t>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>52000</t>
         </is>
       </c>
     </row>
